--- a/applications/Brazil/SJRP_validation.xlsx
+++ b/applications/Brazil/SJRP_validation.xlsx
@@ -465,25 +465,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>597</v>
+        <v>311</v>
       </c>
       <c r="B3">
-        <v>960</v>
+        <v>673</v>
       </c>
       <c r="C3">
-        <v>1314</v>
+        <v>1088</v>
       </c>
       <c r="D3">
-        <v>3117</v>
+        <v>3539</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <v>91</v>

--- a/applications/Brazil/SJRP_validation.xlsx
+++ b/applications/Brazil/SJRP_validation.xlsx
@@ -465,28 +465,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B3">
-        <v>673</v>
+        <v>616</v>
       </c>
       <c r="C3">
-        <v>1088</v>
+        <v>944</v>
       </c>
       <c r="D3">
-        <v>3539</v>
+        <v>2972</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
